--- a/Jogos_do_Dia/2023-08-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="367">
   <si>
     <t>League</t>
   </si>
@@ -292,9 +292,6 @@
     <t>15:00:00</t>
   </si>
   <si>
-    <t>15:05:00</t>
-  </si>
-  <si>
     <t>15:15:00</t>
   </si>
   <si>
@@ -460,39 +457,39 @@
     <t>Stockport County</t>
   </si>
   <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Sutton United</t>
+  </si>
+  <si>
+    <t>Tranmere Rovers</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Forest Green Rovers</t>
+  </si>
+  <si>
+    <t>Bolton Wanderers</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Doncaster Rovers</t>
+  </si>
+  <si>
+    <t>Wycombe Wanderers</t>
+  </si>
+  <si>
     <t>Grimsby Town</t>
   </si>
   <si>
-    <t>Sutton United</t>
-  </si>
-  <si>
-    <t>Tranmere Rovers</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Forest Green Rovers</t>
-  </si>
-  <si>
-    <t>Bolton Wanderers</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Doncaster Rovers</t>
-  </si>
-  <si>
-    <t>Wycombe Wanderers</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
     <t>St. Johnstone</t>
   </si>
   <si>
@@ -526,30 +523,30 @@
     <t>Blackburn Rovers</t>
   </si>
   <si>
+    <t>Carlisle United</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Norwich City</t>
+  </si>
+  <si>
+    <t>Plymouth Argyle</t>
+  </si>
+  <si>
+    <t>Stoke City</t>
+  </si>
+  <si>
+    <t>Swansea City</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
     <t>Bristol City</t>
   </si>
   <si>
-    <t>Carlisle United</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Norwich City</t>
-  </si>
-  <si>
-    <t>Plymouth Argyle</t>
-  </si>
-  <si>
-    <t>Stoke City</t>
-  </si>
-  <si>
-    <t>Swansea City</t>
-  </si>
-  <si>
-    <t>Watford</t>
-  </si>
-  <si>
     <t>Dynamo Dresden</t>
   </si>
   <si>
@@ -580,6 +577,9 @@
     <t>DAC</t>
   </si>
   <si>
+    <t>Trenčín</t>
+  </si>
+  <si>
     <t>Slovan Bratislava</t>
   </si>
   <si>
@@ -598,9 +598,6 @@
     <t>Strømsgodset</t>
   </si>
   <si>
-    <t>Trenčín</t>
-  </si>
-  <si>
     <t>Kilmarnock</t>
   </si>
   <si>
@@ -616,21 +613,21 @@
     <t>Slaven Koprivnica</t>
   </si>
   <si>
+    <t>Amiens SC</t>
+  </si>
+  <si>
+    <t>Annecy</t>
+  </si>
+  <si>
+    <t>Laval</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Laval</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>Amiens SC</t>
-  </si>
-  <si>
     <t>CSKA Moskva</t>
   </si>
   <si>
@@ -655,9 +652,6 @@
     <t>Železničar Pančevo</t>
   </si>
   <si>
-    <t>Red Star Belgrade</t>
-  </si>
-  <si>
     <t>Lokomotiv Sofia 1929</t>
   </si>
   <si>
@@ -670,12 +664,12 @@
     <t>Universitatea Cluj</t>
   </si>
   <si>
+    <t>Avaí</t>
+  </si>
+  <si>
     <t>Zürich</t>
   </si>
   <si>
-    <t>Avaí</t>
-  </si>
-  <si>
     <t>OH Leuven</t>
   </si>
   <si>
@@ -685,15 +679,15 @@
     <t>Amazonas</t>
   </si>
   <si>
+    <t>Pouso Alegre</t>
+  </si>
+  <si>
     <t>Santos</t>
   </si>
   <si>
     <t>Huachipato</t>
   </si>
   <si>
-    <t>Pouso Alegre</t>
-  </si>
-  <si>
     <t>CRB</t>
   </si>
   <si>
@@ -706,15 +700,15 @@
     <t>Sport Recife</t>
   </si>
   <si>
+    <t>Goiás</t>
+  </si>
+  <si>
     <t>Internacional</t>
   </si>
   <si>
     <t>Universidad Católica</t>
   </si>
   <si>
-    <t>Goiás</t>
-  </si>
-  <si>
     <t>Ypiranga Erechim</t>
   </si>
   <si>
@@ -859,39 +853,39 @@
     <t>Gillingham</t>
   </si>
   <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Salford City</t>
+  </si>
+  <si>
+    <t>Lincoln City</t>
+  </si>
+  <si>
+    <t>Burton Albion</t>
+  </si>
+  <si>
+    <t>Harrogate Town</t>
+  </si>
+  <si>
+    <t>Exeter City</t>
+  </si>
+  <si>
     <t>AFC Wimbledon</t>
   </si>
   <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>Salford City</t>
-  </si>
-  <si>
-    <t>Lincoln City</t>
-  </si>
-  <si>
-    <t>Burton Albion</t>
-  </si>
-  <si>
-    <t>Harrogate Town</t>
-  </si>
-  <si>
-    <t>Exeter City</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
     <t>Hearts</t>
   </si>
   <si>
@@ -925,30 +919,30 @@
     <t>West Bromwich Albion</t>
   </si>
   <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Hull City</t>
+  </si>
+  <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>Rotherham United</t>
+  </si>
+  <si>
+    <t>Birmingham City</t>
+  </si>
+  <si>
+    <t>Queens Park Rangers</t>
+  </si>
+  <si>
     <t>Preston North End</t>
   </si>
   <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Millwall</t>
-  </si>
-  <si>
-    <t>Hull City</t>
-  </si>
-  <si>
-    <t>Huddersfield Town</t>
-  </si>
-  <si>
-    <t>Rotherham United</t>
-  </si>
-  <si>
-    <t>Birmingham City</t>
-  </si>
-  <si>
-    <t>Queens Park Rangers</t>
-  </si>
-  <si>
     <t>Arminia Bielefeld</t>
   </si>
   <si>
@@ -979,6 +973,9 @@
     <t>FK Košice</t>
   </si>
   <si>
+    <t>Zemplín Michalovce</t>
+  </si>
+  <si>
     <t>Dukla Banská Bystrica</t>
   </si>
   <si>
@@ -997,9 +994,6 @@
     <t>Vålerenga</t>
   </si>
   <si>
-    <t>Zemplín Michalovce</t>
-  </si>
-  <si>
     <t>Rangers</t>
   </si>
   <si>
@@ -1015,21 +1009,21 @@
     <t>Rudeš</t>
   </si>
   <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Angers SCO</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
     <t>Rodez</t>
   </si>
   <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Angers SCO</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
     <t>Lokomotiv Moskva</t>
   </si>
   <si>
@@ -1054,9 +1048,6 @@
     <t>Mladost Lučani</t>
   </si>
   <si>
-    <t>Napredak</t>
-  </si>
-  <si>
     <t>OFK Pirin</t>
   </si>
   <si>
@@ -1069,12 +1060,12 @@
     <t>Dinamo Bucureşti</t>
   </si>
   <si>
+    <t>Criciúma</t>
+  </si>
+  <si>
     <t>Lugano</t>
   </si>
   <si>
-    <t>Criciúma</t>
-  </si>
-  <si>
     <t>RWDM</t>
   </si>
   <si>
@@ -1084,15 +1075,15 @@
     <t>Aparecidense</t>
   </si>
   <si>
+    <t>Manaus</t>
+  </si>
+  <si>
     <t>Atlético PR</t>
   </si>
   <si>
     <t>Coquimbo Unido</t>
   </si>
   <si>
-    <t>Manaus</t>
-  </si>
-  <si>
     <t>Botafogo SP</t>
   </si>
   <si>
@@ -1105,13 +1096,13 @@
     <t>Novorizontino</t>
   </si>
   <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
     <t>Corinthians</t>
   </si>
   <si>
     <t>Audax Italiano</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
   </si>
   <si>
     <t>Brusque</t>
@@ -1485,7 +1476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI134"/>
+  <dimension ref="A1:AI133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1612,19 +1603,19 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G2">
+        <v>2.29</v>
+      </c>
+      <c r="H2">
+        <v>3.4</v>
+      </c>
+      <c r="I2">
         <v>2.7</v>
-      </c>
-      <c r="H2">
-        <v>3.6</v>
-      </c>
-      <c r="I2">
-        <v>2.3</v>
       </c>
       <c r="J2">
         <v>1.02</v>
@@ -1639,10 +1630,10 @@
         <v>4.75</v>
       </c>
       <c r="N2">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O2">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="P2">
         <v>1.29</v>
@@ -1719,19 +1710,19 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G3">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I3">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="J3">
         <v>1.08</v>
@@ -1746,10 +1737,10 @@
         <v>2.75</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>1.82</v>
       </c>
       <c r="O3">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="P3">
         <v>1.48</v>
@@ -1826,19 +1817,19 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G4">
-        <v>3.75</v>
+        <v>4.02</v>
       </c>
       <c r="H4">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="I4">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="J4">
         <v>1.04</v>
@@ -1853,7 +1844,7 @@
         <v>3.75</v>
       </c>
       <c r="N4">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -1933,19 +1924,19 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G5">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="H5">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="I5">
-        <v>4.1</v>
+        <v>4.53</v>
       </c>
       <c r="J5">
         <v>1.02</v>
@@ -1960,10 +1951,10 @@
         <v>3.3</v>
       </c>
       <c r="N5">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="O5">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="P5">
         <v>1.4</v>
@@ -2040,19 +2031,19 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G6">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="H6">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I6">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="J6">
         <v>1.04</v>
@@ -2067,10 +2058,10 @@
         <v>3.5</v>
       </c>
       <c r="N6">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="O6">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="P6">
         <v>1.36</v>
@@ -2147,19 +2138,19 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G7">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I7">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J7">
         <v>1.05</v>
@@ -2174,10 +2165,10 @@
         <v>3.6</v>
       </c>
       <c r="N7">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P7">
         <v>1.36</v>
@@ -2254,19 +2245,19 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G8">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I8">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="J8">
         <v>1.05</v>
@@ -2281,10 +2272,10 @@
         <v>3.5</v>
       </c>
       <c r="N8">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="O8">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="P8">
         <v>1.36</v>
@@ -2361,19 +2352,19 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G9">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H9">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>6.5</v>
+        <v>5.91</v>
       </c>
       <c r="J9">
         <v>1.05</v>
@@ -2388,10 +2379,10 @@
         <v>3.75</v>
       </c>
       <c r="N9">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="O9">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P9">
         <v>1.36</v>
@@ -2468,19 +2459,19 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G10">
         <v>2.25</v>
       </c>
       <c r="H10">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I10">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J10">
         <v>1.02</v>
@@ -2495,10 +2486,10 @@
         <v>4.5</v>
       </c>
       <c r="N10">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O10">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P10">
         <v>1.27</v>
@@ -2575,16 +2566,16 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G11">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H11">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I11">
         <v>2.95</v>
@@ -2602,10 +2593,10 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="O11">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="P11">
         <v>1.33</v>
@@ -2682,19 +2673,19 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G12">
-        <v>2.67</v>
+        <v>3.29</v>
       </c>
       <c r="H12">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I12">
-        <v>2.32</v>
+        <v>2.05</v>
       </c>
       <c r="J12">
         <v>1.05</v>
@@ -2709,10 +2700,10 @@
         <v>3</v>
       </c>
       <c r="N12">
-        <v>1.72</v>
+        <v>2.11</v>
       </c>
       <c r="O12">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="P12">
         <v>1.43</v>
@@ -2789,19 +2780,19 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G13">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="H13">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I13">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="J13">
         <v>1.03</v>
@@ -2816,10 +2807,10 @@
         <v>4</v>
       </c>
       <c r="N13">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O13">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P13">
         <v>1.3</v>
@@ -2896,19 +2887,19 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G14">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H14">
         <v>3.6</v>
       </c>
       <c r="I14">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="J14">
         <v>1.04</v>
@@ -2923,10 +2914,10 @@
         <v>4.2</v>
       </c>
       <c r="N14">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="O14">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="P14">
         <v>1.3</v>
@@ -3003,19 +2994,19 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G15">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="I15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J15">
         <v>1.01</v>
@@ -3030,10 +3021,10 @@
         <v>8</v>
       </c>
       <c r="N15">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P15">
         <v>1.18</v>
@@ -3110,10 +3101,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G16">
         <v>1.19</v>
@@ -3217,19 +3208,19 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G17">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I17">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J17">
         <v>1.07</v>
@@ -3324,16 +3315,16 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G18">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H18">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="I18">
         <v>4.6</v>
@@ -3351,10 +3342,10 @@
         <v>4.5</v>
       </c>
       <c r="N18">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="O18">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="P18">
         <v>1.3</v>
@@ -3431,19 +3422,19 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G19">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="H19">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I19">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="J19">
         <v>1.04</v>
@@ -3458,10 +3449,10 @@
         <v>4.2</v>
       </c>
       <c r="N19">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="P19">
         <v>1.33</v>
@@ -3538,19 +3529,19 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G20">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H20">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I20">
-        <v>2.76</v>
+        <v>2.87</v>
       </c>
       <c r="J20">
         <v>1.04</v>
@@ -3645,19 +3636,19 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G21">
         <v>3.4</v>
       </c>
       <c r="H21">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="J21">
         <v>1.04</v>
@@ -3672,10 +3663,10 @@
         <v>4</v>
       </c>
       <c r="N21">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="O21">
-        <v>2.09</v>
+        <v>2.14</v>
       </c>
       <c r="P21">
         <v>1.33</v>
@@ -3752,19 +3743,19 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G22">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H22">
-        <v>3.25</v>
+        <v>3.28</v>
       </c>
       <c r="I22">
-        <v>2.84</v>
+        <v>2.61</v>
       </c>
       <c r="J22">
         <v>1.02</v>
@@ -3779,10 +3770,10 @@
         <v>3.14</v>
       </c>
       <c r="N22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O22">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="P22">
         <v>1.41</v>
@@ -3859,19 +3850,19 @@
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G23">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="H23">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I23">
-        <v>7.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J23">
         <v>1.04</v>
@@ -3886,10 +3877,10 @@
         <v>3.93</v>
       </c>
       <c r="N23">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="O23">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="P23">
         <v>1.33</v>
@@ -3966,19 +3957,19 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G24">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="H24">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I24">
-        <v>2.89</v>
+        <v>2.95</v>
       </c>
       <c r="J24">
         <v>1.03</v>
@@ -4073,19 +4064,19 @@
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G25">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="H25">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="I25">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J25">
         <v>1.02</v>
@@ -4100,10 +4091,10 @@
         <v>5.5</v>
       </c>
       <c r="N25">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="O25">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="P25">
         <v>1.22</v>
@@ -4180,19 +4171,19 @@
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G26">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="H26">
+        <v>3.25</v>
+      </c>
+      <c r="I26">
         <v>3.6</v>
-      </c>
-      <c r="I26">
-        <v>3.75</v>
       </c>
       <c r="J26">
         <v>1.05</v>
@@ -4207,10 +4198,10 @@
         <v>3.4</v>
       </c>
       <c r="N26">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="O26">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="P26">
         <v>1.42</v>
@@ -4287,19 +4278,19 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G27">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H27">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I27">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <v>1.04</v>
@@ -4314,10 +4305,10 @@
         <v>3.75</v>
       </c>
       <c r="N27">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="O27">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="P27">
         <v>1.34</v>
@@ -4394,13 +4385,13 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G28">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H28">
         <v>3.3</v>
@@ -4501,16 +4492,16 @@
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G29">
         <v>3.1</v>
       </c>
       <c r="H29">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I29">
         <v>2.11</v>
@@ -4608,19 +4599,19 @@
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G30">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H30">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I30">
-        <v>2.91</v>
+        <v>2.95</v>
       </c>
       <c r="J30">
         <v>1.03</v>
@@ -4715,19 +4706,19 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G31">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H31">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I31">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="J31">
         <v>1.04</v>
@@ -4742,10 +4733,10 @@
         <v>4</v>
       </c>
       <c r="N31">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="O31">
-        <v>2.01</v>
+        <v>2.2</v>
       </c>
       <c r="P31">
         <v>1.35</v>
@@ -4822,19 +4813,19 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G32">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="H32">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="I32">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="J32">
         <v>1.04</v>
@@ -4849,10 +4840,10 @@
         <v>3.9</v>
       </c>
       <c r="N32">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="O32">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="P32">
         <v>1.35</v>
@@ -4929,19 +4920,19 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G33">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="H33">
         <v>3.35</v>
       </c>
       <c r="I33">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J33">
         <v>1.02</v>
@@ -4956,10 +4947,10 @@
         <v>3.3</v>
       </c>
       <c r="N33">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="O33">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="P33">
         <v>1.4</v>
@@ -5036,19 +5027,19 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G34">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="H34">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J34">
         <v>1.03</v>
@@ -5063,10 +5054,10 @@
         <v>3.75</v>
       </c>
       <c r="N34">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="O34">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="P34">
         <v>1.36</v>
@@ -5143,13 +5134,13 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G35">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="H35">
         <v>7</v>
@@ -5170,10 +5161,10 @@
         <v>4.75</v>
       </c>
       <c r="N35">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="O35">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="P35">
         <v>1.21</v>
@@ -5250,19 +5241,19 @@
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F36" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G36">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="H36">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I36">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J36">
         <v>1.03</v>
@@ -5277,10 +5268,10 @@
         <v>4</v>
       </c>
       <c r="N36">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="O36">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="P36">
         <v>1.36</v>
@@ -5357,19 +5348,19 @@
         <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G37">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H37">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="I37">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="J37">
         <v>1.03</v>
@@ -5384,10 +5375,10 @@
         <v>4.5</v>
       </c>
       <c r="N37">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="O37">
-        <v>2.43</v>
+        <v>2.19</v>
       </c>
       <c r="P37">
         <v>1.3</v>
@@ -5435,7 +5426,7 @@
         <v>2.05</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF37">
         <v>1.19</v>
@@ -5464,19 +5455,19 @@
         <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G38">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H38">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I38">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J38">
         <v>1.03</v>
@@ -5491,10 +5482,10 @@
         <v>4</v>
       </c>
       <c r="N38">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="O38">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="P38">
         <v>1.31</v>
@@ -5571,19 +5562,19 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F39" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G39">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I39">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="J39">
         <v>1.01</v>
@@ -5598,10 +5589,10 @@
         <v>4.7</v>
       </c>
       <c r="N39">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="O39">
-        <v>2.05</v>
+        <v>2.36</v>
       </c>
       <c r="P39">
         <v>1.27</v>
@@ -5678,19 +5669,19 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G40">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="I40">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J40">
         <v>1.01</v>
@@ -5705,10 +5696,10 @@
         <v>5.5</v>
       </c>
       <c r="N40">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="O40">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="P40">
         <v>1.21</v>
@@ -5756,7 +5747,7 @@
         <v>5.5</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF40">
         <v>1.27</v>
@@ -5785,19 +5776,19 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G41">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H41">
         <v>3.3</v>
       </c>
       <c r="I41">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="J41">
         <v>1.06</v>
@@ -5812,10 +5803,10 @@
         <v>3.1</v>
       </c>
       <c r="N41">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="O41">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="P41">
         <v>1.44</v>
@@ -5892,19 +5883,19 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G42">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H42">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I42">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J42">
         <v>1.06</v>
@@ -5919,10 +5910,10 @@
         <v>3</v>
       </c>
       <c r="N42">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="O42">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="P42">
         <v>1.44</v>
@@ -5999,19 +5990,19 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G43">
-        <v>3.55</v>
+        <v>3.24</v>
       </c>
       <c r="H43">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="I43">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="J43">
         <v>1.05</v>
@@ -6026,10 +6017,10 @@
         <v>3.25</v>
       </c>
       <c r="N43">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="O43">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="P43">
         <v>1.44</v>
@@ -6106,19 +6097,19 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G44">
-        <v>3.85</v>
+        <v>3.48</v>
       </c>
       <c r="H44">
-        <v>3.45</v>
+        <v>3.38</v>
       </c>
       <c r="I44">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="J44">
         <v>1.04</v>
@@ -6133,10 +6124,10 @@
         <v>3.5</v>
       </c>
       <c r="N44">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O44">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="P44">
         <v>1.36</v>
@@ -6213,19 +6204,19 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F45" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G45">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H45">
-        <v>3.35</v>
+        <v>3.28</v>
       </c>
       <c r="I45">
-        <v>4.2</v>
+        <v>3.87</v>
       </c>
       <c r="J45">
         <v>1.07</v>
@@ -6240,10 +6231,10 @@
         <v>2.9</v>
       </c>
       <c r="N45">
-        <v>2.3</v>
+        <v>2.11</v>
       </c>
       <c r="O45">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="P45">
         <v>1.5</v>
@@ -6320,58 +6311,58 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H46">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I46">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="J46">
         <v>1.06</v>
       </c>
       <c r="K46">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L46">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M46">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="O46">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="P46">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q46">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S46">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T46">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="U46">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="W46">
         <v>0</v>
@@ -6389,28 +6380,28 @@
         <v>0</v>
       </c>
       <c r="AB46">
-        <v>1.69</v>
+        <v>2.44</v>
       </c>
       <c r="AC46">
         <v>8</v>
       </c>
       <c r="AD46">
-        <v>2.63</v>
+        <v>1.75</v>
       </c>
       <c r="AE46">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AF46">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="AG46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AH46">
         <v>2.32</v>
       </c>
       <c r="AI46">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -6427,16 +6418,16 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F47" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G47">
-        <v>4.3</v>
+        <v>3.92</v>
       </c>
       <c r="H47">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="I47">
         <v>1.7</v>
@@ -6454,10 +6445,10 @@
         <v>4.75</v>
       </c>
       <c r="N47">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="O47">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="P47">
         <v>1.3</v>
@@ -6534,19 +6525,19 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F48" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G48">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="H48">
         <v>3.3</v>
       </c>
       <c r="I48">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="J48">
         <v>1.07</v>
@@ -6561,10 +6552,10 @@
         <v>2.9</v>
       </c>
       <c r="N48">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="P48">
         <v>1.44</v>
@@ -6641,19 +6632,19 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G49">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="H49">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J49">
         <v>1.03</v>
@@ -6671,7 +6662,7 @@
         <v>1.83</v>
       </c>
       <c r="O49">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="P49">
         <v>1.36</v>
@@ -6748,19 +6739,19 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F50" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G50">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H50">
         <v>3.45</v>
       </c>
       <c r="I50">
-        <v>4.3</v>
+        <v>4.04</v>
       </c>
       <c r="J50">
         <v>1.05</v>
@@ -6775,10 +6766,10 @@
         <v>3.3</v>
       </c>
       <c r="N50">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="O50">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="P50">
         <v>1.44</v>
@@ -6855,19 +6846,19 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F51" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G51">
         <v>2.7</v>
       </c>
       <c r="H51">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I51">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J51">
         <v>1.04</v>
@@ -6882,10 +6873,10 @@
         <v>3.5</v>
       </c>
       <c r="N51">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O51">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="P51">
         <v>1.4</v>
@@ -6962,19 +6953,19 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F52" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G52">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H52">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="I52">
-        <v>4.7</v>
+        <v>4.32</v>
       </c>
       <c r="J52">
         <v>1.07</v>
@@ -6989,10 +6980,10 @@
         <v>2.8</v>
       </c>
       <c r="N52">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="O52">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="P52">
         <v>1.44</v>
@@ -7069,19 +7060,19 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F53" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G53">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="H53">
-        <v>3.85</v>
+        <v>3.93</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>4.61</v>
       </c>
       <c r="J53">
         <v>1.03</v>
@@ -7096,10 +7087,10 @@
         <v>4.2</v>
       </c>
       <c r="N53">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="O53">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="P53">
         <v>1.3</v>
@@ -7176,16 +7167,16 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F54" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G54">
         <v>2</v>
       </c>
       <c r="H54">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I54">
         <v>3.6</v>
@@ -7203,10 +7194,10 @@
         <v>3.25</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O54">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P54">
         <v>1.44</v>
@@ -7283,19 +7274,19 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G55">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="H55">
-        <v>3.4</v>
+        <v>3.36</v>
       </c>
       <c r="I55">
-        <v>3.7</v>
+        <v>3.46</v>
       </c>
       <c r="J55">
         <v>1.04</v>
@@ -7310,10 +7301,10 @@
         <v>3.6</v>
       </c>
       <c r="N55">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O55">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P55">
         <v>1.36</v>
@@ -7390,58 +7381,58 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F56" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G56">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="H56">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I56">
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
       <c r="J56">
         <v>1.06</v>
       </c>
       <c r="K56">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L56">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N56">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O56">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="P56">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q56">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R56">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S56">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T56">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="U56">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="V56">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="W56">
         <v>0</v>
@@ -7459,28 +7450,28 @@
         <v>0</v>
       </c>
       <c r="AB56">
-        <v>2.44</v>
+        <v>1.69</v>
       </c>
       <c r="AC56">
         <v>8</v>
       </c>
       <c r="AD56">
-        <v>1.75</v>
+        <v>2.63</v>
       </c>
       <c r="AE56">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AF56">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="AG56">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AH56">
         <v>2.32</v>
       </c>
       <c r="AI56">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="57" spans="1:35">
@@ -7497,10 +7488,10 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G57">
         <v>2.8</v>
@@ -7509,7 +7500,7 @@
         <v>3.5</v>
       </c>
       <c r="I57">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J57">
         <v>1.04</v>
@@ -7524,10 +7515,10 @@
         <v>3.6</v>
       </c>
       <c r="N57">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="O57">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="P57">
         <v>1.36</v>
@@ -7604,19 +7595,19 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F58" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G58">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="H58">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I58">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J58">
         <v>1.05</v>
@@ -7631,10 +7622,10 @@
         <v>3.25</v>
       </c>
       <c r="N58">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O58">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="P58">
         <v>1.4</v>
@@ -7711,16 +7702,16 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F59" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G59">
         <v>2.15</v>
       </c>
       <c r="H59">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I59">
         <v>3.25</v>
@@ -7738,10 +7729,10 @@
         <v>3.3</v>
       </c>
       <c r="N59">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O59">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P59">
         <v>1.4</v>
@@ -7818,19 +7809,19 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F60" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G60">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="H60">
         <v>3.7</v>
       </c>
       <c r="I60">
-        <v>4.7</v>
+        <v>4.54</v>
       </c>
       <c r="J60">
         <v>1.04</v>
@@ -7845,7 +7836,7 @@
         <v>3.5</v>
       </c>
       <c r="N60">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O60">
         <v>1.9</v>
@@ -7925,19 +7916,19 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F61" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G61">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H61">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="J61">
         <v>1.08</v>
@@ -8032,19 +8023,19 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F62" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G62">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="H62">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="I62">
-        <v>3.65</v>
+        <v>3.24</v>
       </c>
       <c r="J62">
         <v>1.04</v>
@@ -8062,7 +8053,7 @@
         <v>1.95</v>
       </c>
       <c r="O62">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P62">
         <v>1.36</v>
@@ -8139,13 +8130,13 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F63" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G63">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="H63">
         <v>3.4</v>
@@ -8166,10 +8157,10 @@
         <v>3.3</v>
       </c>
       <c r="N63">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O63">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P63">
         <v>1.4</v>
@@ -8246,19 +8237,19 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F64" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G64">
         <v>2.45</v>
       </c>
       <c r="H64">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I64">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="J64">
         <v>1.07</v>
@@ -8273,10 +8264,10 @@
         <v>2.9</v>
       </c>
       <c r="N64">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="O64">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="P64">
         <v>1.44</v>
@@ -8353,16 +8344,16 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F65" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G65">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="H65">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I65">
         <v>2.5</v>
@@ -8380,10 +8371,10 @@
         <v>3.4</v>
       </c>
       <c r="N65">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O65">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P65">
         <v>1.4</v>
@@ -8460,19 +8451,19 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F66" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H66">
         <v>3.3</v>
       </c>
       <c r="I66">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J66">
         <v>1.06</v>
@@ -8487,10 +8478,10 @@
         <v>3</v>
       </c>
       <c r="N66">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="O66">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="P66">
         <v>1.44</v>
@@ -8567,19 +8558,19 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F67" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G67">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="H67">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I67">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="J67">
         <v>1.07</v>
@@ -8594,7 +8585,7 @@
         <v>3</v>
       </c>
       <c r="N67">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="O67">
         <v>1.75</v>
@@ -8662,7 +8653,7 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68" s="2">
         <v>45143</v>
@@ -8674,37 +8665,37 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F68" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G68">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="H68">
-        <v>3.36</v>
+        <v>3.4</v>
       </c>
       <c r="I68">
-        <v>3.16</v>
+        <v>3.3</v>
       </c>
       <c r="J68">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K68">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L68">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M68">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N68">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O68">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="P68">
         <v>1.44</v>
@@ -8713,19 +8704,19 @@
         <v>2.63</v>
       </c>
       <c r="R68">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="U68">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="V68">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="W68">
         <v>0</v>
@@ -8743,33 +8734,33 @@
         <v>0</v>
       </c>
       <c r="AB68">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AC68">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD68">
         <v>2.77</v>
       </c>
       <c r="AE68">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AF68">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AG68">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="AH68">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AI68">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="69" spans="1:35">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B69" s="2">
         <v>45143</v>
@@ -8781,19 +8772,19 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F69" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G69">
-        <v>2.21</v>
+        <v>1.85</v>
       </c>
       <c r="H69">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="I69">
-        <v>2.9</v>
+        <v>3.67</v>
       </c>
       <c r="J69">
         <v>1.05</v>
@@ -8802,37 +8793,37 @@
         <v>10</v>
       </c>
       <c r="L69">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M69">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>2.09</v>
+        <v>1.98</v>
       </c>
       <c r="O69">
-        <v>1.61</v>
+        <v>1.9</v>
       </c>
       <c r="P69">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q69">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R69">
         <v>1.8</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T69">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="U69">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V69">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
         <v>0</v>
@@ -8850,13 +8841,13 @@
         <v>0</v>
       </c>
       <c r="AB69">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AC69">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD69">
-        <v>2.77</v>
+        <v>3.44</v>
       </c>
       <c r="AE69">
         <v>1.25</v>
@@ -8865,7 +8856,7 @@
         <v>1.47</v>
       </c>
       <c r="AG69">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AH69">
         <v>2.4</v>
@@ -8888,97 +8879,97 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F70" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G70">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="H70">
-        <v>3.6</v>
+        <v>3.56</v>
       </c>
       <c r="I70">
-        <v>4</v>
+        <v>4.65</v>
       </c>
       <c r="J70">
         <v>1.05</v>
       </c>
       <c r="K70">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L70">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M70">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N70">
         <v>1.96</v>
       </c>
       <c r="O70">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="P70">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S70">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T70">
+        <v>1.17</v>
+      </c>
+      <c r="U70">
+        <v>1.22</v>
+      </c>
+      <c r="V70">
+        <v>2.2</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>1.33</v>
+      </c>
+      <c r="AC70">
+        <v>11</v>
+      </c>
+      <c r="AD70">
+        <v>4.1</v>
+      </c>
+      <c r="AE70">
         <v>1.16</v>
       </c>
-      <c r="U70">
-        <v>1.28</v>
-      </c>
-      <c r="V70">
-        <v>1.9</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>1.44</v>
-      </c>
-      <c r="AC70">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD70">
-        <v>3.44</v>
-      </c>
-      <c r="AE70">
-        <v>1.25</v>
-      </c>
       <c r="AF70">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AG70">
-        <v>1.9</v>
+        <v>1.49</v>
       </c>
       <c r="AH70">
+        <v>1.88</v>
+      </c>
+      <c r="AI70">
         <v>2.4</v>
-      </c>
-      <c r="AI70">
-        <v>3.4</v>
       </c>
     </row>
     <row r="71" spans="1:35">
@@ -8995,97 +8986,97 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F71" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G71">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H71">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="I71">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="J71">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K71">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L71">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M71">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N71">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="O71">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="P71">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q71">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R71">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T71">
+        <v>1.35</v>
+      </c>
+      <c r="U71">
+        <v>1.28</v>
+      </c>
+      <c r="V71">
+        <v>1.68</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>1.76</v>
+      </c>
+      <c r="AC71">
+        <v>9.6</v>
+      </c>
+      <c r="AD71">
+        <v>2.41</v>
+      </c>
+      <c r="AE71">
         <v>1.17</v>
       </c>
-      <c r="U71">
-        <v>1.22</v>
-      </c>
-      <c r="V71">
-        <v>2.2</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <v>1.33</v>
-      </c>
-      <c r="AC71">
-        <v>11</v>
-      </c>
-      <c r="AD71">
-        <v>4.1</v>
-      </c>
-      <c r="AE71">
-        <v>1.16</v>
-      </c>
       <c r="AF71">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AG71">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AH71">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="AI71">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="72" spans="1:35">
@@ -9102,37 +9093,37 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F72" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G72">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="H72">
-        <v>3.36</v>
+        <v>3.51</v>
       </c>
       <c r="I72">
-        <v>3.16</v>
+        <v>4.75</v>
       </c>
       <c r="J72">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K72">
         <v>10</v>
       </c>
       <c r="L72">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M72">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="O72">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="P72">
         <v>1.4</v>
@@ -9141,19 +9132,19 @@
         <v>2.75</v>
       </c>
       <c r="R72">
+        <v>1.91</v>
+      </c>
+      <c r="S72">
         <v>1.8</v>
       </c>
-      <c r="S72">
-        <v>1.91</v>
-      </c>
       <c r="T72">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="U72">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="V72">
-        <v>1.68</v>
+        <v>2.25</v>
       </c>
       <c r="W72">
         <v>0</v>
@@ -9171,28 +9162,28 @@
         <v>0</v>
       </c>
       <c r="AB72">
-        <v>1.76</v>
+        <v>1.32</v>
       </c>
       <c r="AC72">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD72">
-        <v>2.41</v>
+        <v>4.36</v>
       </c>
       <c r="AE72">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AF72">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AG72">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AH72">
         <v>1.98</v>
       </c>
       <c r="AI72">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="73" spans="1:35">
@@ -9209,58 +9200,58 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G73">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="H73">
-        <v>3.7</v>
+        <v>3.46</v>
       </c>
       <c r="I73">
-        <v>5.25</v>
+        <v>4.05</v>
       </c>
       <c r="J73">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O73">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P73">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q73">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
         <v>1.91</v>
       </c>
-      <c r="S73">
-        <v>1.8</v>
-      </c>
       <c r="T73">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="U73">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="V73">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="W73">
         <v>0</v>
@@ -9278,28 +9269,28 @@
         <v>0</v>
       </c>
       <c r="AB73">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD73">
-        <v>4.36</v>
+        <v>0</v>
       </c>
       <c r="AE73">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AF73">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AG73">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AH73">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AI73">
-        <v>2.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:35">
@@ -9316,58 +9307,58 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F74" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G74">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H74">
-        <v>3.6</v>
+        <v>3.33</v>
       </c>
       <c r="I74">
-        <v>4.3</v>
+        <v>3.33</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="O74">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="P74">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="Q74">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="R74">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S74">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U74">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V74">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
         <v>0</v>
@@ -9385,28 +9376,28 @@
         <v>0</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AC74">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD74">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AE74">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF74">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG74">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AH74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI74">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="75" spans="1:35">
@@ -9423,59 +9414,59 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F75" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H75">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I75">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="J75">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K75">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L75">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M75">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O75">
+        <v>1.65</v>
+      </c>
+      <c r="P75">
+        <v>1.44</v>
+      </c>
+      <c r="Q75">
+        <v>2.63</v>
+      </c>
+      <c r="R75">
+        <v>1.91</v>
+      </c>
+      <c r="S75">
         <v>1.8</v>
       </c>
-      <c r="P75">
-        <v>1.42</v>
-      </c>
-      <c r="Q75">
-        <v>2.95</v>
-      </c>
-      <c r="R75">
+      <c r="T75">
+        <v>1.26</v>
+      </c>
+      <c r="U75">
+        <v>1.28</v>
+      </c>
+      <c r="V75">
         <v>1.83</v>
       </c>
-      <c r="S75">
-        <v>1.96</v>
-      </c>
-      <c r="T75">
-        <v>1.25</v>
-      </c>
-      <c r="U75">
-        <v>1.25</v>
-      </c>
-      <c r="V75">
-        <v>1.95</v>
-      </c>
       <c r="W75">
         <v>0</v>
       </c>
@@ -9492,28 +9483,28 @@
         <v>0</v>
       </c>
       <c r="AB75">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="AC75">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="AD75">
-        <v>2.57</v>
+        <v>2.77</v>
       </c>
       <c r="AE75">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AF75">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="AG75">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="AH75">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AI75">
-        <v>2.45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:35">
@@ -9530,19 +9521,19 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F76" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G76">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="H76">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I76">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J76">
         <v>1.03</v>
@@ -9557,10 +9548,10 @@
         <v>4.5</v>
       </c>
       <c r="N76">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="O76">
-        <v>2.19</v>
+        <v>2.38</v>
       </c>
       <c r="P76">
         <v>1.3</v>
@@ -9637,19 +9628,19 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F77" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G77">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="H77">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I77">
-        <v>2.99</v>
+        <v>2.65</v>
       </c>
       <c r="J77">
         <v>1.01</v>
@@ -9664,10 +9655,10 @@
         <v>4.05</v>
       </c>
       <c r="N77">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O77">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="P77">
         <v>1.32</v>
@@ -9744,19 +9735,19 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F78" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G78">
-        <v>3.01</v>
+        <v>3.09</v>
       </c>
       <c r="H78">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I78">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -9851,19 +9842,19 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F79" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G79">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="H79">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I79">
-        <v>5.75</v>
+        <v>5.2</v>
       </c>
       <c r="J79">
         <v>1.02</v>
@@ -9878,10 +9869,10 @@
         <v>4.5</v>
       </c>
       <c r="N79">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O79">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="P79">
         <v>1.26</v>
@@ -9958,19 +9949,19 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F80" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G80">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="H80">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I80">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="J80">
         <v>1.02</v>
@@ -9985,10 +9976,10 @@
         <v>4.5</v>
       </c>
       <c r="N80">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="O80">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="P80">
         <v>1.28</v>
@@ -10065,19 +10056,19 @@
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F81" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G81">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="H81">
-        <v>2.81</v>
+        <v>2.9</v>
       </c>
       <c r="I81">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="J81">
         <v>1.08</v>
@@ -10092,10 +10083,10 @@
         <v>3</v>
       </c>
       <c r="N81">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="O81">
-        <v>1.42</v>
+        <v>1.72</v>
       </c>
       <c r="P81">
         <v>1.45</v>
@@ -10172,19 +10163,19 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F82" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G82">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H82">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I82">
-        <v>2.22</v>
+        <v>2.6</v>
       </c>
       <c r="J82">
         <v>1.04</v>
@@ -10199,7 +10190,7 @@
         <v>2.71</v>
       </c>
       <c r="N82">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="O82">
         <v>1.6</v>
@@ -10279,19 +10270,19 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F83" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G83">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="H83">
         <v>3.4</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="J83">
         <v>1.04</v>
@@ -10306,10 +10297,10 @@
         <v>3.5</v>
       </c>
       <c r="N83">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="O83">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P83">
         <v>1.37</v>
@@ -10386,19 +10377,19 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F84" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G84">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="H84">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="I84">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="J84">
         <v>1.1</v>
@@ -10413,10 +10404,10 @@
         <v>2.75</v>
       </c>
       <c r="N84">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="O84">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="P84">
         <v>1.44</v>
@@ -10467,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="AF84">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG84">
         <v>0</v>
@@ -10493,19 +10484,19 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F85" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G85">
         <v>1.43</v>
       </c>
       <c r="H85">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I85">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J85">
         <v>1.03</v>
@@ -10571,7 +10562,7 @@
         <v>4.44</v>
       </c>
       <c r="AE85">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF85">
         <v>1.29</v>
@@ -10600,102 +10591,102 @@
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F86" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G86">
+        <v>1.79</v>
+      </c>
+      <c r="H86">
+        <v>3.6</v>
+      </c>
+      <c r="I86">
+        <v>3.85</v>
+      </c>
+      <c r="J86">
+        <v>1.05</v>
+      </c>
+      <c r="K86">
+        <v>9</v>
+      </c>
+      <c r="L86">
+        <v>1.25</v>
+      </c>
+      <c r="M86">
+        <v>3.75</v>
+      </c>
+      <c r="N86">
+        <v>1.69</v>
+      </c>
+      <c r="O86">
+        <v>1.85</v>
+      </c>
+      <c r="P86">
+        <v>1.33</v>
+      </c>
+      <c r="Q86">
+        <v>3.25</v>
+      </c>
+      <c r="R86">
+        <v>1.75</v>
+      </c>
+      <c r="S86">
+        <v>2</v>
+      </c>
+      <c r="T86">
+        <v>1.16</v>
+      </c>
+      <c r="U86">
         <v>1.2</v>
       </c>
-      <c r="H86">
-        <v>6.25</v>
-      </c>
-      <c r="I86">
+      <c r="V86">
+        <v>2</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>1.36</v>
+      </c>
+      <c r="AC86">
         <v>11</v>
       </c>
-      <c r="J86">
-        <v>1.02</v>
-      </c>
-      <c r="K86">
-        <v>13</v>
-      </c>
-      <c r="L86">
-        <v>1.15</v>
-      </c>
-      <c r="M86">
-        <v>4.75</v>
-      </c>
-      <c r="N86">
-        <v>1.48</v>
-      </c>
-      <c r="O86">
-        <v>2.47</v>
-      </c>
-      <c r="P86">
-        <v>1.25</v>
-      </c>
-      <c r="Q86">
-        <v>3.75</v>
-      </c>
-      <c r="R86">
-        <v>2.1</v>
-      </c>
-      <c r="S86">
-        <v>1.67</v>
-      </c>
-      <c r="T86">
-        <v>1.02</v>
-      </c>
-      <c r="U86">
-        <v>1.05</v>
-      </c>
-      <c r="V86">
-        <v>3.68</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-      <c r="X86">
-        <v>0</v>
-      </c>
-      <c r="Y86">
-        <v>0</v>
-      </c>
-      <c r="Z86">
-        <v>0</v>
-      </c>
-      <c r="AA86">
-        <v>0</v>
-      </c>
-      <c r="AB86">
-        <v>1.2</v>
-      </c>
-      <c r="AC86">
-        <v>14</v>
-      </c>
       <c r="AD86">
-        <v>5.53</v>
+        <v>3.97</v>
       </c>
       <c r="AE86">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="AF86">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AG86">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="AH86">
-        <v>1.94</v>
+        <v>1.57</v>
       </c>
       <c r="AI86">
-        <v>2.47</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="87" spans="1:35">
       <c r="A87" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B87" s="2">
         <v>45143</v>
@@ -10704,105 +10695,105 @@
         <v>85</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F87" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G87">
-        <v>1.9</v>
+        <v>1.18</v>
       </c>
       <c r="H87">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="I87">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="J87">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K87">
-        <v>14.75</v>
+        <v>13</v>
       </c>
       <c r="L87">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="M87">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N87">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="O87">
-        <v>1.92</v>
+        <v>2.47</v>
       </c>
       <c r="P87">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Q87">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="R87">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="S87">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="T87">
+        <v>1.02</v>
+      </c>
+      <c r="U87">
+        <v>1.05</v>
+      </c>
+      <c r="V87">
+        <v>3.68</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
         <v>1.2</v>
       </c>
-      <c r="U87">
-        <v>1.22</v>
-      </c>
-      <c r="V87">
-        <v>1.87</v>
-      </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-      <c r="X87">
-        <v>0</v>
-      </c>
-      <c r="Y87">
-        <v>0</v>
-      </c>
-      <c r="Z87">
-        <v>1.08</v>
-      </c>
-      <c r="AA87">
-        <v>1.08</v>
-      </c>
-      <c r="AB87">
-        <v>1.51</v>
-      </c>
       <c r="AC87">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD87">
-        <v>3.15</v>
+        <v>5.53</v>
       </c>
       <c r="AE87">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AF87">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AG87">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AH87">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="AI87">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="88" spans="1:35">
       <c r="A88" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B88" s="2">
         <v>45143</v>
@@ -10814,97 +10805,97 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F88" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G88">
-        <v>1.27</v>
+        <v>1.87</v>
       </c>
       <c r="H88">
-        <v>6.25</v>
+        <v>3.25</v>
       </c>
       <c r="I88">
-        <v>9.5</v>
+        <v>3.9</v>
       </c>
       <c r="J88">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K88">
-        <v>25.5</v>
+        <v>14.75</v>
       </c>
       <c r="L88">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="M88">
-        <v>5.65</v>
+        <v>4</v>
       </c>
       <c r="N88">
-        <v>1.38</v>
+        <v>1.69</v>
       </c>
       <c r="O88">
-        <v>2.81</v>
+        <v>1.86</v>
       </c>
       <c r="P88">
+        <v>1.33</v>
+      </c>
+      <c r="Q88">
+        <v>3.05</v>
+      </c>
+      <c r="R88">
+        <v>1.66</v>
+      </c>
+      <c r="S88">
+        <v>2.15</v>
+      </c>
+      <c r="T88">
+        <v>1.2</v>
+      </c>
+      <c r="U88">
         <v>1.22</v>
       </c>
-      <c r="Q88">
-        <v>4.05</v>
-      </c>
-      <c r="R88">
-        <v>1.8</v>
-      </c>
-      <c r="S88">
-        <v>1.95</v>
-      </c>
-      <c r="T88">
-        <v>1.04</v>
-      </c>
-      <c r="U88">
-        <v>1.12</v>
-      </c>
       <c r="V88">
-        <v>3.9</v>
+        <v>1.87</v>
       </c>
       <c r="W88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X88">
         <v>0</v>
       </c>
       <c r="Y88">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="Z88">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="AA88">
-        <v>3.51</v>
+        <v>1.08</v>
       </c>
       <c r="AB88">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="AC88">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD88">
-        <v>6.16</v>
+        <v>3.15</v>
       </c>
       <c r="AE88">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AF88">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AG88">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AH88">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="AI88">
-        <v>3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="89" spans="1:35">
@@ -10921,102 +10912,102 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F89" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G89">
+        <v>1.27</v>
+      </c>
+      <c r="H89">
+        <v>5.8</v>
+      </c>
+      <c r="I89">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J89">
+        <v>1.02</v>
+      </c>
+      <c r="K89">
+        <v>25.5</v>
+      </c>
+      <c r="L89">
+        <v>1.09</v>
+      </c>
+      <c r="M89">
+        <v>5.65</v>
+      </c>
+      <c r="N89">
+        <v>1.38</v>
+      </c>
+      <c r="O89">
+        <v>2.81</v>
+      </c>
+      <c r="P89">
+        <v>1.22</v>
+      </c>
+      <c r="Q89">
+        <v>4.05</v>
+      </c>
+      <c r="R89">
+        <v>1.8</v>
+      </c>
+      <c r="S89">
+        <v>1.95</v>
+      </c>
+      <c r="T89">
+        <v>1.04</v>
+      </c>
+      <c r="U89">
+        <v>1.12</v>
+      </c>
+      <c r="V89">
         <v>3.9</v>
       </c>
-      <c r="H89">
-        <v>3.8</v>
-      </c>
-      <c r="I89">
-        <v>1.85</v>
-      </c>
-      <c r="J89">
-        <v>1.03</v>
-      </c>
-      <c r="K89">
-        <v>16.75</v>
-      </c>
-      <c r="L89">
-        <v>1.16</v>
-      </c>
-      <c r="M89">
-        <v>4.5</v>
-      </c>
-      <c r="N89">
-        <v>1.65</v>
-      </c>
-      <c r="O89">
-        <v>2.09</v>
-      </c>
-      <c r="P89">
-        <v>1.29</v>
-      </c>
-      <c r="Q89">
-        <v>3.45</v>
-      </c>
-      <c r="R89">
-        <v>1.55</v>
-      </c>
-      <c r="S89">
-        <v>2.36</v>
-      </c>
-      <c r="T89">
-        <v>1.94</v>
-      </c>
-      <c r="U89">
-        <v>1.25</v>
-      </c>
-      <c r="V89">
-        <v>1.26</v>
-      </c>
       <c r="W89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>1.68</v>
+      </c>
+      <c r="Z89">
+        <v>1.83</v>
+      </c>
+      <c r="AA89">
+        <v>3.51</v>
+      </c>
+      <c r="AB89">
+        <v>1.18</v>
+      </c>
+      <c r="AC89">
+        <v>11</v>
+      </c>
+      <c r="AD89">
+        <v>6.16</v>
+      </c>
+      <c r="AE89">
+        <v>1.21</v>
+      </c>
+      <c r="AF89">
+        <v>1.4</v>
+      </c>
+      <c r="AG89">
+        <v>1.71</v>
+      </c>
+      <c r="AH89">
+        <v>2.2</v>
+      </c>
+      <c r="AI89">
         <v>3</v>
-      </c>
-      <c r="Y89">
-        <v>1.4</v>
-      </c>
-      <c r="Z89">
-        <v>1.47</v>
-      </c>
-      <c r="AA89">
-        <v>2.87</v>
-      </c>
-      <c r="AB89">
-        <v>2.53</v>
-      </c>
-      <c r="AC89">
-        <v>8.5</v>
-      </c>
-      <c r="AD89">
-        <v>1.69</v>
-      </c>
-      <c r="AE89">
-        <v>1.19</v>
-      </c>
-      <c r="AF89">
-        <v>1.28</v>
-      </c>
-      <c r="AG89">
-        <v>1.51</v>
-      </c>
-      <c r="AH89">
-        <v>1.98</v>
-      </c>
-      <c r="AI89">
-        <v>2.45</v>
       </c>
     </row>
     <row r="90" spans="1:35">
       <c r="A90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90" s="2">
         <v>45143</v>
@@ -11025,105 +11016,105 @@
         <v>85</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F90" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G90">
-        <v>7.45</v>
+        <v>3.05</v>
       </c>
       <c r="H90">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="I90">
-        <v>1.24</v>
+        <v>2.08</v>
       </c>
       <c r="J90">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K90">
-        <v>12</v>
+        <v>16.75</v>
       </c>
       <c r="L90">
         <v>1.16</v>
       </c>
       <c r="M90">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N90">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="O90">
-        <v>2.07</v>
+        <v>2.34</v>
       </c>
       <c r="P90">
+        <v>1.29</v>
+      </c>
+      <c r="Q90">
+        <v>3.45</v>
+      </c>
+      <c r="R90">
+        <v>1.55</v>
+      </c>
+      <c r="S90">
+        <v>2.36</v>
+      </c>
+      <c r="T90">
+        <v>1.94</v>
+      </c>
+      <c r="U90">
         <v>1.25</v>
       </c>
-      <c r="Q90">
-        <v>3.75</v>
-      </c>
-      <c r="R90">
-        <v>1.91</v>
-      </c>
-      <c r="S90">
-        <v>1.8</v>
-      </c>
-      <c r="T90">
-        <v>3.25</v>
-      </c>
-      <c r="U90">
-        <v>1.09</v>
-      </c>
       <c r="V90">
-        <v>1.02</v>
+        <v>1.26</v>
       </c>
       <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
         <v>3</v>
       </c>
-      <c r="X90">
-        <v>0</v>
-      </c>
       <c r="Y90">
-        <v>2.01</v>
+        <v>1.4</v>
       </c>
       <c r="Z90">
-        <v>2.64</v>
+        <v>1.47</v>
       </c>
       <c r="AA90">
-        <v>4.65</v>
+        <v>2.87</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AC90">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD90">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AE90">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF90">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG90">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AH90">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI90">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="91" spans="1:35">
       <c r="A91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B91" s="2">
         <v>45143</v>
@@ -11132,105 +11123,105 @@
         <v>85</v>
       </c>
       <c r="D91">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F91" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G91">
-        <v>2.29</v>
+        <v>8.5</v>
       </c>
       <c r="H91">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I91">
-        <v>2.81</v>
+        <v>1.3</v>
       </c>
       <c r="J91">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K91">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L91">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="M91">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="N91">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="O91">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="P91">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q91">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="R91">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="S91">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>1.36</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="V91">
-        <v>1.65</v>
+        <v>1.02</v>
       </c>
       <c r="W91">
-        <v>1.71</v>
+        <v>3</v>
       </c>
       <c r="X91">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="Y91">
-        <v>1.69</v>
+        <v>2.01</v>
       </c>
       <c r="Z91">
-        <v>1.23</v>
+        <v>2.64</v>
       </c>
       <c r="AA91">
-        <v>2.92</v>
+        <v>4.65</v>
       </c>
       <c r="AB91">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AC91">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD91">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AE91">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AF91">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AG91">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AH91">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AI91">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:35">
       <c r="A92" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B92" s="2">
         <v>45143</v>
@@ -11239,100 +11230,100 @@
         <v>85</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F92" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G92">
-        <v>1.77</v>
+        <v>2.44</v>
       </c>
       <c r="H92">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="I92">
-        <v>3.95</v>
+        <v>2.6</v>
       </c>
       <c r="J92">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K92">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L92">
+        <v>1.2</v>
+      </c>
+      <c r="M92">
+        <v>4.33</v>
+      </c>
+      <c r="N92">
+        <v>1.57</v>
+      </c>
+      <c r="O92">
+        <v>2.15</v>
+      </c>
+      <c r="P92">
+        <v>1.3</v>
+      </c>
+      <c r="Q92">
+        <v>3.4</v>
+      </c>
+      <c r="R92">
+        <v>1.57</v>
+      </c>
+      <c r="S92">
+        <v>2.3</v>
+      </c>
+      <c r="T92">
+        <v>1.36</v>
+      </c>
+      <c r="U92">
         <v>1.25</v>
       </c>
-      <c r="M92">
-        <v>3.75</v>
-      </c>
-      <c r="N92">
+      <c r="V92">
+        <v>1.65</v>
+      </c>
+      <c r="W92">
+        <v>1.71</v>
+      </c>
+      <c r="X92">
+        <v>1.14</v>
+      </c>
+      <c r="Y92">
         <v>1.69</v>
       </c>
-      <c r="O92">
-        <v>1.85</v>
-      </c>
-      <c r="P92">
-        <v>1.33</v>
-      </c>
-      <c r="Q92">
-        <v>3.25</v>
-      </c>
-      <c r="R92">
-        <v>1.75</v>
-      </c>
-      <c r="S92">
-        <v>2</v>
-      </c>
-      <c r="T92">
-        <v>1.16</v>
-      </c>
-      <c r="U92">
-        <v>1.2</v>
-      </c>
-      <c r="V92">
-        <v>2</v>
-      </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-      <c r="X92">
-        <v>0</v>
-      </c>
-      <c r="Y92">
-        <v>0</v>
-      </c>
       <c r="Z92">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AA92">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AB92">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="AC92">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD92">
-        <v>3.97</v>
+        <v>2.2</v>
       </c>
       <c r="AE92">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AF92">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AG92">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AH92">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AI92">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="93" spans="1:35">
@@ -11349,19 +11340,19 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F93" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G93">
-        <v>6.25</v>
+        <v>5.6</v>
       </c>
       <c r="H93">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="I93">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="J93">
         <v>1.01</v>
@@ -11376,10 +11367,10 @@
         <v>5.29</v>
       </c>
       <c r="N93">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O93">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="P93">
         <v>1.25</v>
@@ -11456,19 +11447,19 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F94" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G94">
-        <v>1.9</v>
+        <v>2.13</v>
       </c>
       <c r="H94">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="I94">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="J94">
         <v>1.02</v>
@@ -11483,10 +11474,10 @@
         <v>4.2</v>
       </c>
       <c r="N94">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="O94">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="P94">
         <v>1.3</v>
@@ -11563,16 +11554,16 @@
         <v>22</v>
       </c>
       <c r="E95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F95" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G95">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="H95">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I95">
         <v>3.7</v>
@@ -11590,10 +11581,10 @@
         <v>3.1</v>
       </c>
       <c r="N95">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="O95">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="P95">
         <v>1.4</v>
@@ -11670,19 +11661,19 @@
         <v>20</v>
       </c>
       <c r="E96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F96" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G96">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H96">
         <v>3.2</v>
       </c>
       <c r="I96">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="J96">
         <v>1.04</v>
@@ -11697,10 +11688,10 @@
         <v>3.4</v>
       </c>
       <c r="N96">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="O96">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="P96">
         <v>1.34</v>
@@ -11777,10 +11768,10 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F97" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G97">
         <v>1.75</v>
@@ -11884,97 +11875,97 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G98">
+        <v>2.25</v>
+      </c>
+      <c r="H98">
+        <v>3.4</v>
+      </c>
+      <c r="I98">
+        <v>2.95</v>
+      </c>
+      <c r="J98">
+        <v>1.06</v>
+      </c>
+      <c r="K98">
+        <v>8</v>
+      </c>
+      <c r="L98">
+        <v>1.3</v>
+      </c>
+      <c r="M98">
+        <v>3.3</v>
+      </c>
+      <c r="N98">
+        <v>1.98</v>
+      </c>
+      <c r="O98">
+        <v>1.9</v>
+      </c>
+      <c r="P98">
+        <v>1.4</v>
+      </c>
+      <c r="Q98">
+        <v>2.75</v>
+      </c>
+      <c r="R98">
+        <v>1.73</v>
+      </c>
+      <c r="S98">
         <v>2</v>
       </c>
-      <c r="H98">
-        <v>3.05</v>
-      </c>
-      <c r="I98">
-        <v>3.9</v>
-      </c>
-      <c r="J98">
-        <v>1.09</v>
-      </c>
-      <c r="K98">
-        <v>7</v>
-      </c>
-      <c r="L98">
+      <c r="T98">
+        <v>1.4</v>
+      </c>
+      <c r="U98">
+        <v>1.25</v>
+      </c>
+      <c r="V98">
         <v>1.5</v>
       </c>
-      <c r="M98">
-        <v>2.35</v>
-      </c>
-      <c r="N98">
-        <v>2.35</v>
-      </c>
-      <c r="O98">
-        <v>1.55</v>
-      </c>
-      <c r="P98">
-        <v>1.57</v>
-      </c>
-      <c r="Q98">
-        <v>2.25</v>
-      </c>
-      <c r="R98">
-        <v>2.25</v>
-      </c>
-      <c r="S98">
-        <v>1.57</v>
-      </c>
-      <c r="T98">
-        <v>1.18</v>
-      </c>
-      <c r="U98">
-        <v>1.28</v>
-      </c>
-      <c r="V98">
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
         <v>1.83</v>
       </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-      <c r="X98">
-        <v>0</v>
-      </c>
-      <c r="Y98">
-        <v>0</v>
-      </c>
-      <c r="Z98">
-        <v>0</v>
-      </c>
-      <c r="AA98">
-        <v>0</v>
-      </c>
-      <c r="AB98">
-        <v>1.5</v>
-      </c>
       <c r="AC98">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AD98">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="AE98">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AF98">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AG98">
-        <v>2.95</v>
+        <v>2.38</v>
       </c>
       <c r="AH98">
-        <v>4.25</v>
+        <v>3.3</v>
       </c>
       <c r="AI98">
-        <v>6.8</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="99" spans="1:35">
@@ -11991,19 +11982,19 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F99" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G99">
-        <v>3.65</v>
+        <v>2.25</v>
       </c>
       <c r="H99">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I99">
-        <v>1.95</v>
+        <v>2.98</v>
       </c>
       <c r="J99">
         <v>1.06</v>
@@ -12018,10 +12009,10 @@
         <v>3.25</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="O99">
-        <v>1.63</v>
+        <v>1.79</v>
       </c>
       <c r="P99">
         <v>1.44</v>
@@ -12098,19 +12089,19 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F100" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G100">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="H100">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I100">
-        <v>2.27</v>
+        <v>2.65</v>
       </c>
       <c r="J100">
         <v>1.06</v>
@@ -12125,10 +12116,10 @@
         <v>3</v>
       </c>
       <c r="N100">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="O100">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="P100">
         <v>1.44</v>
@@ -12205,19 +12196,19 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F101" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G101">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="H101">
         <v>3.3</v>
       </c>
       <c r="I101">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="J101">
         <v>1.08</v>
@@ -12232,10 +12223,10 @@
         <v>3</v>
       </c>
       <c r="N101">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="O101">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="P101">
         <v>1.44</v>
@@ -12312,97 +12303,97 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F102" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G102">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="H102">
+        <v>3.15</v>
+      </c>
+      <c r="I102">
+        <v>3.8</v>
+      </c>
+      <c r="J102">
+        <v>1.09</v>
+      </c>
+      <c r="K102">
+        <v>7</v>
+      </c>
+      <c r="L102">
+        <v>1.5</v>
+      </c>
+      <c r="M102">
+        <v>2.35</v>
+      </c>
+      <c r="N102">
+        <v>2.28</v>
+      </c>
+      <c r="O102">
+        <v>1.49</v>
+      </c>
+      <c r="P102">
+        <v>1.57</v>
+      </c>
+      <c r="Q102">
+        <v>2.25</v>
+      </c>
+      <c r="R102">
+        <v>2.25</v>
+      </c>
+      <c r="S102">
+        <v>1.57</v>
+      </c>
+      <c r="T102">
+        <v>1.18</v>
+      </c>
+      <c r="U102">
+        <v>1.28</v>
+      </c>
+      <c r="V102">
+        <v>1.83</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <v>1.5</v>
+      </c>
+      <c r="AC102">
+        <v>7</v>
+      </c>
+      <c r="AD102">
         <v>3.4</v>
       </c>
-      <c r="I102">
-        <v>3.25</v>
-      </c>
-      <c r="J102">
-        <v>1.06</v>
-      </c>
-      <c r="K102">
-        <v>8</v>
-      </c>
-      <c r="L102">
-        <v>1.3</v>
-      </c>
-      <c r="M102">
-        <v>3.3</v>
-      </c>
-      <c r="N102">
-        <v>2.1</v>
-      </c>
-      <c r="O102">
-        <v>1.7</v>
-      </c>
-      <c r="P102">
-        <v>1.4</v>
-      </c>
-      <c r="Q102">
-        <v>2.75</v>
-      </c>
-      <c r="R102">
-        <v>1.73</v>
-      </c>
-      <c r="S102">
-        <v>2</v>
-      </c>
-      <c r="T102">
-        <v>1.4</v>
-      </c>
-      <c r="U102">
-        <v>1.25</v>
-      </c>
-      <c r="V102">
-        <v>1.5</v>
-      </c>
-      <c r="W102">
-        <v>0</v>
-      </c>
-      <c r="X102">
-        <v>0</v>
-      </c>
-      <c r="Y102">
-        <v>0</v>
-      </c>
-      <c r="Z102">
-        <v>0</v>
-      </c>
-      <c r="AA102">
-        <v>0</v>
-      </c>
-      <c r="AB102">
-        <v>1.83</v>
-      </c>
-      <c r="AC102">
-        <v>5.5</v>
-      </c>
-      <c r="AD102">
-        <v>2.3</v>
-      </c>
       <c r="AE102">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AF102">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AG102">
-        <v>2.38</v>
+        <v>2.95</v>
       </c>
       <c r="AH102">
-        <v>3.3</v>
+        <v>4.25</v>
       </c>
       <c r="AI102">
-        <v>4.75</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="103" spans="1:35">
@@ -12419,19 +12410,19 @@
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F103" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G103">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="H103">
-        <v>3.65</v>
+        <v>3.28</v>
       </c>
       <c r="I103">
-        <v>3.39</v>
+        <v>2.61</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -12446,10 +12437,10 @@
         <v>3.74</v>
       </c>
       <c r="N103">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="P103">
         <v>1.33</v>
@@ -12526,19 +12517,19 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G104">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="H104">
         <v>3.3</v>
       </c>
       <c r="I104">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="J104">
         <v>1.07</v>
@@ -12553,10 +12544,10 @@
         <v>3</v>
       </c>
       <c r="N104">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="O104">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="P104">
         <v>1.44</v>
@@ -12633,19 +12624,19 @@
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G105">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="H105">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I105">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="J105">
         <v>1.07</v>
@@ -12740,19 +12731,19 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G106">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H106">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I106">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J106">
         <v>1.07</v>
@@ -12767,10 +12758,10 @@
         <v>3.1</v>
       </c>
       <c r="N106">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="O106">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="P106">
         <v>1.44</v>
@@ -12847,19 +12838,19 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G107">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I107">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="J107">
         <v>1.02</v>
@@ -12874,10 +12865,10 @@
         <v>4.5</v>
       </c>
       <c r="N107">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="O107">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="P107">
         <v>1.29</v>
@@ -12954,19 +12945,19 @@
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G108">
-        <v>2.23</v>
+        <v>2.21</v>
       </c>
       <c r="H108">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I108">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J108">
         <v>1.08</v>
@@ -12981,10 +12972,10 @@
         <v>3.02</v>
       </c>
       <c r="N108">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="O108">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="P108">
         <v>1.48</v>
@@ -13061,43 +13052,43 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F109" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G109">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H109">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I109">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N109">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O109">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="P109">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="R109">
         <v>1.67</v>
@@ -13106,13 +13097,13 @@
         <v>2.1</v>
       </c>
       <c r="T109">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U109">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V109">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W109">
         <v>0</v>
@@ -13130,28 +13121,28 @@
         <v>0</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AC109">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD109">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AE109">
         <v>0</v>
       </c>
       <c r="AF109">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AG109">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AH109">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI109">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="110" spans="1:35">
@@ -13168,19 +13159,19 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G110">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="H110">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I110">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -13195,10 +13186,10 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>2.16</v>
+        <v>2.23</v>
       </c>
       <c r="O110">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -13263,7 +13254,7 @@
     </row>
     <row r="111" spans="1:35">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B111" s="2">
         <v>45143</v>
@@ -13272,76 +13263,76 @@
         <v>92</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G111">
-        <v>1.07</v>
+        <v>1.87</v>
       </c>
       <c r="H111">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="I111">
-        <v>25</v>
+        <v>3.8</v>
       </c>
       <c r="J111">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K111">
-        <v>36.5</v>
+        <v>8.5</v>
       </c>
       <c r="L111">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="M111">
-        <v>7.35</v>
+        <v>3.1</v>
       </c>
       <c r="N111">
-        <v>1.26</v>
+        <v>2.02</v>
       </c>
       <c r="O111">
-        <v>3.35</v>
+        <v>1.74</v>
       </c>
       <c r="P111">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="Q111">
-        <v>4.75</v>
+        <v>2.63</v>
       </c>
       <c r="R111">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="S111">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="U111">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="V111">
-        <v>8.5</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X111">
         <v>0</v>
       </c>
       <c r="Y111">
-        <v>2.39</v>
+        <v>1.16</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="AA111">
-        <v>2.39</v>
+        <v>2.08</v>
       </c>
       <c r="AB111">
         <v>0</v>
@@ -13370,114 +13361,114 @@
     </row>
     <row r="112" spans="1:35">
       <c r="A112" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B112" s="2">
         <v>45143</v>
       </c>
       <c r="C112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G112">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H112">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I112">
-        <v>4</v>
+        <v>1.88</v>
       </c>
       <c r="J112">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K112">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="L112">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="M112">
-        <v>3.1</v>
+        <v>3.56</v>
       </c>
       <c r="N112">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="O112">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="P112">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="Q112">
-        <v>2.63</v>
+        <v>3.18</v>
       </c>
       <c r="R112">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="T112">
-        <v>1.18</v>
+        <v>2.11</v>
       </c>
       <c r="U112">
         <v>1.25</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.19</v>
       </c>
       <c r="W112">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X112">
         <v>0</v>
       </c>
       <c r="Y112">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="Z112">
-        <v>0.92</v>
+        <v>1.61</v>
       </c>
       <c r="AA112">
-        <v>2.08</v>
+        <v>2.79</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="AC112">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD112">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AE112">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF112">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AG112">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH112">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AI112">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="113" spans="1:35">
       <c r="A113" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B113" s="2">
         <v>45143</v>
@@ -13486,168 +13477,168 @@
         <v>93</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G113">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="H113">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I113">
-        <v>1.73</v>
+        <v>5</v>
       </c>
       <c r="J113">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K113">
-        <v>9.9</v>
+        <v>11.5</v>
       </c>
       <c r="L113">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="M113">
-        <v>3.56</v>
+        <v>4.5</v>
       </c>
       <c r="N113">
-        <v>1.77</v>
+        <v>1.59</v>
       </c>
       <c r="O113">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="P113">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="Q113">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="R113">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="S113">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="T113">
-        <v>2.11</v>
+        <v>1.15</v>
       </c>
       <c r="U113">
+        <v>1.18</v>
+      </c>
+      <c r="V113">
+        <v>2.15</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>1.51</v>
+      </c>
+      <c r="AC113">
+        <v>9</v>
+      </c>
+      <c r="AD113">
+        <v>3.06</v>
+      </c>
+      <c r="AE113">
+        <v>1.15</v>
+      </c>
+      <c r="AF113">
         <v>1.25</v>
       </c>
-      <c r="V113">
-        <v>1.19</v>
-      </c>
-      <c r="W113">
-        <v>0</v>
-      </c>
-      <c r="X113">
-        <v>0</v>
-      </c>
-      <c r="Y113">
-        <v>1.18</v>
-      </c>
-      <c r="Z113">
-        <v>1.61</v>
-      </c>
-      <c r="AA113">
-        <v>2.79</v>
-      </c>
-      <c r="AB113">
-        <v>3.13</v>
-      </c>
-      <c r="AC113">
-        <v>9.5</v>
-      </c>
-      <c r="AD113">
-        <v>1.47</v>
-      </c>
-      <c r="AE113">
-        <v>1.23</v>
-      </c>
-      <c r="AF113">
-        <v>1.37</v>
-      </c>
       <c r="AG113">
-        <v>1.75</v>
+        <v>1.46</v>
       </c>
       <c r="AH113">
-        <v>2.17</v>
+        <v>1.85</v>
       </c>
       <c r="AI113">
-        <v>2.85</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="114" spans="1:35">
       <c r="A114" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B114" s="2">
         <v>45143</v>
       </c>
       <c r="C114" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>215</v>
+      </c>
+      <c r="F114" t="s">
+        <v>347</v>
+      </c>
+      <c r="G114">
+        <v>2.18</v>
+      </c>
+      <c r="H114">
+        <v>2.95</v>
+      </c>
+      <c r="I114">
+        <v>3.3</v>
+      </c>
+      <c r="J114">
+        <v>1.08</v>
+      </c>
+      <c r="K114">
+        <v>7</v>
+      </c>
+      <c r="L114">
+        <v>1.44</v>
+      </c>
+      <c r="M114">
+        <v>2.4</v>
+      </c>
+      <c r="N114">
+        <v>2.19</v>
+      </c>
+      <c r="O114">
+        <v>1.6</v>
+      </c>
+      <c r="P114">
+        <v>1.48</v>
+      </c>
+      <c r="Q114">
+        <v>2.5</v>
+      </c>
+      <c r="R114">
         <v>2</v>
       </c>
-      <c r="E114" t="s">
-        <v>216</v>
-      </c>
-      <c r="F114" t="s">
-        <v>349</v>
-      </c>
-      <c r="G114">
-        <v>1.65</v>
-      </c>
-      <c r="H114">
-        <v>3.95</v>
-      </c>
-      <c r="I114">
-        <v>5</v>
-      </c>
-      <c r="J114">
-        <v>1.03</v>
-      </c>
-      <c r="K114">
-        <v>11.5</v>
-      </c>
-      <c r="L114">
+      <c r="S114">
+        <v>1.75</v>
+      </c>
+      <c r="T114">
         <v>1.18</v>
       </c>
-      <c r="M114">
-        <v>4.5</v>
-      </c>
-      <c r="N114">
-        <v>1.66</v>
-      </c>
-      <c r="O114">
-        <v>2.15</v>
-      </c>
-      <c r="P114">
-        <v>1.3</v>
-      </c>
-      <c r="Q114">
-        <v>3.25</v>
-      </c>
-      <c r="R114">
-        <v>1.63</v>
-      </c>
-      <c r="S114">
-        <v>2.2</v>
-      </c>
-      <c r="T114">
-        <v>1.15</v>
-      </c>
       <c r="U114">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="V114">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="W114">
         <v>0</v>
@@ -13656,144 +13647,144 @@
         <v>0</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AA114">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AB114">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="AC114">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD114">
-        <v>3.06</v>
+        <v>2.9</v>
       </c>
       <c r="AE114">
-        <v>1.15</v>
+        <v>1.34</v>
       </c>
       <c r="AF114">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AG114">
-        <v>1.46</v>
+        <v>2.13</v>
       </c>
       <c r="AH114">
-        <v>1.85</v>
+        <v>2.85</v>
       </c>
       <c r="AI114">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="115" spans="1:35">
       <c r="A115" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B115" s="2">
         <v>45143</v>
       </c>
       <c r="C115" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>2.47</v>
       </c>
       <c r="H115">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="I115">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="J115">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K115">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L115">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M115">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N115">
-        <v>2.19</v>
+        <v>2.56</v>
       </c>
       <c r="O115">
+        <v>1.45</v>
+      </c>
+      <c r="P115">
+        <v>1.59</v>
+      </c>
+      <c r="Q115">
+        <v>2.24</v>
+      </c>
+      <c r="R115">
+        <v>2.1</v>
+      </c>
+      <c r="S115">
+        <v>1.68</v>
+      </c>
+      <c r="T115">
+        <v>1.36</v>
+      </c>
+      <c r="U115">
+        <v>1.33</v>
+      </c>
+      <c r="V115">
+        <v>1.5</v>
+      </c>
+      <c r="W115">
+        <v>0.9</v>
+      </c>
+      <c r="X115">
         <v>1.6</v>
       </c>
-      <c r="P115">
-        <v>1.48</v>
-      </c>
-      <c r="Q115">
-        <v>2.5</v>
-      </c>
-      <c r="R115">
-        <v>2</v>
-      </c>
-      <c r="S115">
-        <v>1.75</v>
-      </c>
-      <c r="T115">
-        <v>1.18</v>
-      </c>
-      <c r="U115">
-        <v>1.25</v>
-      </c>
-      <c r="V115">
-        <v>1.83</v>
-      </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-      <c r="X115">
-        <v>0</v>
-      </c>
       <c r="Y115">
-        <v>1.11</v>
+        <v>1.57</v>
       </c>
       <c r="Z115">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AA115">
-        <v>2.18</v>
+        <v>2.63</v>
       </c>
       <c r="AB115">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AC115">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD115">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AE115">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AF115">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AG115">
-        <v>2.13</v>
+        <v>1.57</v>
       </c>
       <c r="AH115">
-        <v>2.85</v>
+        <v>1.93</v>
       </c>
       <c r="AI115">
-        <v>4.4</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="116" spans="1:35">
@@ -13804,16 +13795,16 @@
         <v>45143</v>
       </c>
       <c r="C116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D116">
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F116" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G116">
         <v>2.2</v>
@@ -13822,7 +13813,7 @@
         <v>3.45</v>
       </c>
       <c r="I116">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="J116">
         <v>1.04</v>
@@ -13837,10 +13828,10 @@
         <v>3.82</v>
       </c>
       <c r="N116">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="O116">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="P116">
         <v>1.33</v>
@@ -13905,7 +13896,7 @@
     </row>
     <row r="117" spans="1:35">
       <c r="A117" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B117" s="2">
         <v>45143</v>
@@ -13914,105 +13905,105 @@
         <v>94</v>
       </c>
       <c r="D117">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G117">
-        <v>2.45</v>
+        <v>1.97</v>
       </c>
       <c r="H117">
-        <v>2.69</v>
+        <v>3.55</v>
       </c>
       <c r="I117">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J117">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="K117">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="L117">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="M117">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N117">
-        <v>2.57</v>
+        <v>1.67</v>
       </c>
       <c r="O117">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="P117">
-        <v>1.59</v>
+        <v>1.33</v>
       </c>
       <c r="Q117">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="R117">
+        <v>1.67</v>
+      </c>
+      <c r="S117">
         <v>2.1</v>
       </c>
-      <c r="S117">
-        <v>1.68</v>
-      </c>
       <c r="T117">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="U117">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="V117">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W117">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="X117">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Y117">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="Z117">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AB117">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AC117">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AD117">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AE117">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF117">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AG117">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="AH117">
-        <v>1.93</v>
+        <v>1.52</v>
       </c>
       <c r="AI117">
-        <v>2.37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:35">
       <c r="A118" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B118" s="2">
         <v>45143</v>
@@ -14021,61 +14012,61 @@
         <v>95</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F118" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G118">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="H118">
-        <v>3.85</v>
+        <v>5.5</v>
       </c>
       <c r="I118">
-        <v>3.95</v>
+        <v>11</v>
       </c>
       <c r="J118">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K118">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="L118">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N118">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="O118">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="P118">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q118">
         <v>3.25</v>
       </c>
       <c r="R118">
-        <v>1.67</v>
+        <v>2.15</v>
       </c>
       <c r="S118">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="T118">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="U118">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="W118">
         <v>0</v>
@@ -14084,144 +14075,144 @@
         <v>0</v>
       </c>
       <c r="Y118">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Z118">
         <v>0</v>
       </c>
       <c r="AA118">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AB118">
-        <v>1.62</v>
+        <v>1.23</v>
       </c>
       <c r="AC118">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD118">
-        <v>2.6</v>
+        <v>5.57</v>
       </c>
       <c r="AE118">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF118">
-        <v>1.16</v>
+        <v>1.88</v>
       </c>
       <c r="AG118">
-        <v>1.29</v>
+        <v>2.39</v>
       </c>
       <c r="AH118">
-        <v>1.52</v>
+        <v>3.28</v>
       </c>
       <c r="AI118">
-        <v>2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="119" spans="1:35">
       <c r="A119" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B119" s="2">
         <v>45143</v>
       </c>
       <c r="C119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E119" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F119" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G119">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="H119">
-        <v>5.5</v>
+        <v>3.35</v>
       </c>
       <c r="I119">
-        <v>11</v>
+        <v>4.8</v>
       </c>
       <c r="J119">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="K119">
-        <v>16.5</v>
+        <v>7.95</v>
       </c>
       <c r="L119">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="M119">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="N119">
-        <v>1.65</v>
+        <v>2.33</v>
       </c>
       <c r="O119">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="P119">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="Q119">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="R119">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S119">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="T119">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="U119">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="V119">
-        <v>3.4</v>
+        <v>1.82</v>
       </c>
       <c r="W119">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y119">
-        <v>1.29</v>
+        <v>1.73</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA119">
-        <v>1.29</v>
+        <v>2.76</v>
       </c>
       <c r="AB119">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="AC119">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD119">
-        <v>5.57</v>
+        <v>3.26</v>
       </c>
       <c r="AE119">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AF119">
-        <v>1.88</v>
+        <v>1.43</v>
       </c>
       <c r="AG119">
-        <v>2.39</v>
+        <v>1.75</v>
       </c>
       <c r="AH119">
-        <v>3.28</v>
+        <v>2.23</v>
       </c>
       <c r="AI119">
-        <v>4.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:35">
@@ -14232,43 +14223,43 @@
         <v>45143</v>
       </c>
       <c r="C120" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D120">
         <v>16</v>
       </c>
       <c r="E120" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F120" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G120">
-        <v>1.73</v>
+        <v>2.07</v>
       </c>
       <c r="H120">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I120">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="J120">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K120">
         <v>7.95</v>
       </c>
       <c r="L120">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M120">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="N120">
-        <v>2.28</v>
+        <v>2.35</v>
       </c>
       <c r="O120">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="P120">
         <v>1.52</v>
@@ -14277,43 +14268,43 @@
         <v>2.4</v>
       </c>
       <c r="R120">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="T120">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="U120">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="V120">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="W120">
-        <v>1.71</v>
+        <v>0.57</v>
       </c>
       <c r="X120">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="Y120">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z120">
-        <v>1.03</v>
+        <v>1.28</v>
       </c>
       <c r="AA120">
-        <v>2.76</v>
+        <v>3.08</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AC120">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD120">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AE120">
         <v>0</v>
@@ -14322,13 +14313,13 @@
         <v>0</v>
       </c>
       <c r="AG120">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AH120">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AI120">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="121" spans="1:35">
@@ -14339,31 +14330,31 @@
         <v>45143</v>
       </c>
       <c r="C121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D121">
         <v>18</v>
       </c>
       <c r="E121" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F121" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G121">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="H121">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I121">
-        <v>2.94</v>
+        <v>2.41</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L121">
         <v>1.5</v>
@@ -14378,10 +14369,10 @@
         <v>1.57</v>
       </c>
       <c r="P121">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R121">
         <v>2</v>
@@ -14390,13 +14381,13 @@
         <v>1.75</v>
       </c>
       <c r="T121">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U121">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V121">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W121">
         <v>1.44</v>
@@ -14423,19 +14414,19 @@
         <v>2.25</v>
       </c>
       <c r="AE121">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF121">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG121">
         <v>2.2</v>
       </c>
       <c r="AH121">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AI121">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="122" spans="1:35">
@@ -14446,25 +14437,25 @@
         <v>45143</v>
       </c>
       <c r="C122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D122">
         <v>20</v>
       </c>
       <c r="E122" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>2.21</v>
       </c>
       <c r="H122">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I122">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="J122">
         <v>1.05</v>
@@ -14479,10 +14470,10 @@
         <v>3.25</v>
       </c>
       <c r="N122">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="O122">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="P122">
         <v>1.39</v>
@@ -14547,7 +14538,7 @@
     </row>
     <row r="123" spans="1:35">
       <c r="A123" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B123" s="2">
         <v>45143</v>
@@ -14556,100 +14547,100 @@
         <v>96</v>
       </c>
       <c r="D123">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E123" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F123" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G123">
-        <v>2.11</v>
+        <v>1.87</v>
       </c>
       <c r="H123">
-        <v>2.91</v>
+        <v>3.15</v>
       </c>
       <c r="I123">
-        <v>3.55</v>
+        <v>4.12</v>
       </c>
       <c r="J123">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="K123">
-        <v>7.95</v>
+        <v>6</v>
       </c>
       <c r="L123">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="M123">
-        <v>2.67</v>
+        <v>2.35</v>
       </c>
       <c r="N123">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="O123">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="P123">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="Q123">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S123">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T123">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="U123">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="V123">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="W123">
-        <v>0.57</v>
+        <v>1.8</v>
       </c>
       <c r="X123">
-        <v>0.38</v>
+        <v>1.5</v>
       </c>
       <c r="Y123">
+        <v>1.5</v>
+      </c>
+      <c r="Z123">
+        <v>1.18</v>
+      </c>
+      <c r="AA123">
+        <v>2.68</v>
+      </c>
+      <c r="AB123">
         <v>1.8</v>
       </c>
-      <c r="Z123">
-        <v>1.28</v>
-      </c>
-      <c r="AA123">
-        <v>3.08</v>
-      </c>
-      <c r="AB123">
-        <v>0</v>
-      </c>
       <c r="AC123">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD123">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE123">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF123">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG123">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AH123">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AI123">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="124" spans="1:35">
@@ -14660,108 +14651,108 @@
         <v>45143</v>
       </c>
       <c r="C124" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D124">
         <v>22</v>
       </c>
       <c r="E124" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F124" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>2.86</v>
       </c>
       <c r="J124">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K124">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L124">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="M124">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="N124">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="O124">
         <v>1.46</v>
       </c>
       <c r="P124">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="Q124">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="R124">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S124">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T124">
+        <v>1.38</v>
+      </c>
+      <c r="U124">
+        <v>1.33</v>
+      </c>
+      <c r="V124">
+        <v>1.5</v>
+      </c>
+      <c r="W124">
+        <v>1.5</v>
+      </c>
+      <c r="X124">
+        <v>1.18</v>
+      </c>
+      <c r="Y124">
+        <v>1.39</v>
+      </c>
+      <c r="Z124">
+        <v>1.24</v>
+      </c>
+      <c r="AA124">
+        <v>2.63</v>
+      </c>
+      <c r="AB124">
+        <v>1.55</v>
+      </c>
+      <c r="AC124">
+        <v>7.5</v>
+      </c>
+      <c r="AD124">
+        <v>3.1</v>
+      </c>
+      <c r="AE124">
+        <v>1.14</v>
+      </c>
+      <c r="AF124">
         <v>1.28</v>
       </c>
-      <c r="U124">
-        <v>1.3</v>
-      </c>
-      <c r="V124">
-        <v>1.66</v>
-      </c>
-      <c r="W124">
-        <v>1.8</v>
-      </c>
-      <c r="X124">
-        <v>1.5</v>
-      </c>
-      <c r="Y124">
-        <v>1.5</v>
-      </c>
-      <c r="Z124">
-        <v>1.18</v>
-      </c>
-      <c r="AA124">
-        <v>2.68</v>
-      </c>
-      <c r="AB124">
-        <v>1.8</v>
-      </c>
-      <c r="AC124">
-        <v>7</v>
-      </c>
-      <c r="AD124">
-        <v>2.5</v>
-      </c>
-      <c r="AE124">
-        <v>1.19</v>
-      </c>
-      <c r="AF124">
-        <v>1.44</v>
-      </c>
       <c r="AG124">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="AH124">
-        <v>2.17</v>
+        <v>1.96</v>
       </c>
       <c r="AI124">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="125" spans="1:35">
       <c r="A125" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B125" s="2">
         <v>45143</v>
@@ -14770,105 +14761,105 @@
         <v>97</v>
       </c>
       <c r="D125">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F125" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G125">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="H125">
-        <v>2.76</v>
+        <v>3.9</v>
       </c>
       <c r="I125">
-        <v>2.95</v>
+        <v>4.9</v>
       </c>
       <c r="J125">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K125">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L125">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M125">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="N125">
-        <v>2.45</v>
+        <v>1.68</v>
       </c>
       <c r="O125">
-        <v>1.44</v>
+        <v>2.06</v>
       </c>
       <c r="P125">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="Q125">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="S125">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="T125">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="U125">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="V125">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="W125">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="X125">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="Y125">
-        <v>1.39</v>
+        <v>1.63</v>
       </c>
       <c r="Z125">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AA125">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="AB125">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD125">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="AE125">
         <v>0</v>
       </c>
       <c r="AF125">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AG125">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AH125">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AI125">
-        <v>2.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:35">
       <c r="A126" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B126" s="2">
         <v>45143</v>
@@ -14877,105 +14868,105 @@
         <v>98</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E126" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F126" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G126">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="H126">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="I126">
-        <v>5</v>
+        <v>3.78</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L126">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M126">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N126">
-        <v>1.64</v>
+        <v>2.39</v>
       </c>
       <c r="O126">
-        <v>1.99</v>
+        <v>1.51</v>
       </c>
       <c r="P126">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R126">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S126">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T126">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U126">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V126">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W126">
-        <v>1.77</v>
+        <v>2.55</v>
       </c>
       <c r="X126">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Y126">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="Z126">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="AA126">
-        <v>2.88</v>
+        <v>3.07</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AC126">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD126">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AE126">
         <v>0</v>
       </c>
       <c r="AF126">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AG126">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AH126">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AI126">
-        <v>0</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="127" spans="1:35">
       <c r="A127" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B127" s="2">
         <v>45143</v>
@@ -14984,100 +14975,100 @@
         <v>99</v>
       </c>
       <c r="D127">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F127" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G127">
-        <v>1.97</v>
+        <v>3.1</v>
       </c>
       <c r="H127">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="I127">
-        <v>3.95</v>
+        <v>2.35</v>
       </c>
       <c r="J127">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K127">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="L127">
+        <v>1.4</v>
+      </c>
+      <c r="M127">
+        <v>2.95</v>
+      </c>
+      <c r="N127">
+        <v>2.2</v>
+      </c>
+      <c r="O127">
+        <v>1.57</v>
+      </c>
+      <c r="P127">
         <v>1.44</v>
       </c>
-      <c r="M127">
-        <v>2.65</v>
-      </c>
-      <c r="N127">
-        <v>2.31</v>
-      </c>
-      <c r="O127">
-        <v>1.5</v>
-      </c>
-      <c r="P127">
-        <v>1.51</v>
-      </c>
       <c r="Q127">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="R127">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S127">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="T127">
-        <v>1.22</v>
+        <v>1.55</v>
       </c>
       <c r="U127">
         <v>1.28</v>
       </c>
       <c r="V127">
+        <v>1.44</v>
+      </c>
+      <c r="W127">
+        <v>1.13</v>
+      </c>
+      <c r="X127">
+        <v>1</v>
+      </c>
+      <c r="Y127">
         <v>1.75</v>
       </c>
-      <c r="W127">
+      <c r="Z127">
+        <v>1.46</v>
+      </c>
+      <c r="AA127">
+        <v>3.21</v>
+      </c>
+      <c r="AB127">
+        <v>2.05</v>
+      </c>
+      <c r="AC127">
+        <v>8</v>
+      </c>
+      <c r="AD127">
+        <v>2</v>
+      </c>
+      <c r="AE127">
+        <v>1.19</v>
+      </c>
+      <c r="AF127">
+        <v>1.37</v>
+      </c>
+      <c r="AG127">
+        <v>2.38</v>
+      </c>
+      <c r="AH127">
+        <v>2.02</v>
+      </c>
+      <c r="AI127">
         <v>2.55</v>
-      </c>
-      <c r="X127">
-        <v>1.73</v>
-      </c>
-      <c r="Y127">
-        <v>1.6</v>
-      </c>
-      <c r="Z127">
-        <v>1.47</v>
-      </c>
-      <c r="AA127">
-        <v>3.07</v>
-      </c>
-      <c r="AB127">
-        <v>1.67</v>
-      </c>
-      <c r="AC127">
-        <v>7.5</v>
-      </c>
-      <c r="AD127">
-        <v>2.75</v>
-      </c>
-      <c r="AE127">
-        <v>0</v>
-      </c>
-      <c r="AF127">
-        <v>0</v>
-      </c>
-      <c r="AG127">
-        <v>1.48</v>
-      </c>
-      <c r="AH127">
-        <v>1.71</v>
-      </c>
-      <c r="AI127">
-        <v>2.09</v>
       </c>
     </row>
     <row r="128" spans="1:35">
@@ -15088,49 +15079,49 @@
         <v>45143</v>
       </c>
       <c r="C128" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D128">
         <v>18</v>
       </c>
       <c r="E128" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F128" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H128">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I128">
-        <v>4.05</v>
+        <v>3.89</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L128">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M128">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N128">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="O128">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P128">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R128">
         <v>2.1</v>
@@ -15139,13 +15130,13 @@
         <v>1.67</v>
       </c>
       <c r="T128">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U128">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V128">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W128">
         <v>1.75</v>
@@ -15163,28 +15154,28 @@
         <v>2.57</v>
       </c>
       <c r="AB128">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AC128">
         <v>7.5</v>
       </c>
       <c r="AD128">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AE128">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF128">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG128">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH128">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AI128">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="129" spans="1:35">
@@ -15195,25 +15186,25 @@
         <v>45143</v>
       </c>
       <c r="C129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D129">
         <v>20</v>
       </c>
       <c r="E129" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F129" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="H129">
         <v>3.4</v>
       </c>
       <c r="I129">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="J129">
         <v>1.03</v>
@@ -15228,10 +15219,10 @@
         <v>3.75</v>
       </c>
       <c r="N129">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="O129">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="P129">
         <v>1.34</v>
@@ -15296,7 +15287,7 @@
     </row>
     <row r="130" spans="1:35">
       <c r="A130" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B130" s="2">
         <v>45143</v>
@@ -15305,85 +15296,85 @@
         <v>100</v>
       </c>
       <c r="D130">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E130" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F130" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G130">
-        <v>3.15</v>
+        <v>2.02</v>
       </c>
       <c r="H130">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="I130">
-        <v>2.19</v>
+        <v>3.22</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="L130">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M130">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="N130">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="O130">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="P130">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R130">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="S130">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="T130">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U130">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V130">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W130">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="X130">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="Y130">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="Z130">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AA130">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="AB130">
-        <v>2.05</v>
+        <v>1.59</v>
       </c>
       <c r="AC130">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD130">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="AE130">
         <v>0</v>
@@ -15392,13 +15383,13 @@
         <v>0</v>
       </c>
       <c r="AG130">
-        <v>2.38</v>
+        <v>1.58</v>
       </c>
       <c r="AH130">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AI130">
-        <v>0</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="131" spans="1:35">
@@ -15409,31 +15400,31 @@
         <v>45143</v>
       </c>
       <c r="C131" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D131">
         <v>16</v>
       </c>
       <c r="E131" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F131" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G131">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2.79</v>
       </c>
       <c r="I131">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="J131">
         <v>1.07</v>
       </c>
       <c r="K131">
-        <v>9.25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L131">
         <v>1.34</v>
@@ -15442,10 +15433,10 @@
         <v>2.98</v>
       </c>
       <c r="N131">
-        <v>2.09</v>
+        <v>2.14</v>
       </c>
       <c r="O131">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="P131">
         <v>1.48</v>
@@ -15469,19 +15460,19 @@
         <v>1.55</v>
       </c>
       <c r="W131">
-        <v>1.75</v>
+        <v>1.14</v>
       </c>
       <c r="X131">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="Y131">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="Z131">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AA131">
-        <v>3.08</v>
+        <v>3.28</v>
       </c>
       <c r="AB131">
         <v>0</v>
@@ -15499,10 +15490,10 @@
         <v>0</v>
       </c>
       <c r="AG131">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AH131">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AI131">
         <v>0</v>
@@ -15510,7 +15501,7 @@
     </row>
     <row r="132" spans="1:35">
       <c r="A132" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B132" s="2">
         <v>45143</v>
@@ -15519,76 +15510,76 @@
         <v>101</v>
       </c>
       <c r="D132">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F132" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G132">
-        <v>2.11</v>
+        <v>1.76</v>
       </c>
       <c r="H132">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="I132">
-        <v>3.45</v>
+        <v>4.15</v>
       </c>
       <c r="J132">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K132">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="L132">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M132">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="N132">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="O132">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="P132">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="Q132">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="S132">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="T132">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U132">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="V132">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="W132">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="X132">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="Y132">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
       <c r="Z132">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="AA132">
-        <v>3.28</v>
+        <v>2.82</v>
       </c>
       <c r="AB132">
         <v>0</v>
@@ -15617,7 +15608,7 @@
     </row>
     <row r="133" spans="1:35">
       <c r="A133" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B133" s="2">
         <v>45143</v>
@@ -15626,207 +15617,100 @@
         <v>102</v>
       </c>
       <c r="D133">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F133" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G133">
-        <v>1.83</v>
+        <v>2.8</v>
       </c>
       <c r="H133">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I133">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="N133">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="O133">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="P133">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R133">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S133">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T133">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="U133">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V133">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W133">
-        <v>1.31</v>
+        <v>2.33</v>
       </c>
       <c r="X133">
-        <v>0.92</v>
+        <v>1.56</v>
       </c>
       <c r="Y133">
-        <v>1.51</v>
+        <v>1.86</v>
       </c>
       <c r="Z133">
-        <v>1.31</v>
+        <v>1.48</v>
       </c>
       <c r="AA133">
-        <v>2.82</v>
+        <v>3.34</v>
       </c>
       <c r="AB133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC133">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE133">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF133">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AG133">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AH133">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AI133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:35">
-      <c r="A134" t="s">
-        <v>71</v>
-      </c>
-      <c r="B134" s="2">
-        <v>45143</v>
-      </c>
-      <c r="C134" t="s">
-        <v>103</v>
-      </c>
-      <c r="D134">
-        <v>18</v>
-      </c>
-      <c r="E134" t="s">
-        <v>236</v>
-      </c>
-      <c r="F134" t="s">
-        <v>369</v>
-      </c>
-      <c r="G134">
-        <v>2.75</v>
-      </c>
-      <c r="H134">
-        <v>3.3</v>
-      </c>
-      <c r="I134">
-        <v>2.55</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-      <c r="K134">
-        <v>0</v>
-      </c>
-      <c r="L134">
-        <v>0</v>
-      </c>
-      <c r="M134">
-        <v>0</v>
-      </c>
-      <c r="N134">
-        <v>2.1</v>
-      </c>
-      <c r="O134">
-        <v>1.72</v>
-      </c>
-      <c r="P134">
-        <v>0</v>
-      </c>
-      <c r="Q134">
-        <v>0</v>
-      </c>
-      <c r="R134">
-        <v>1.8</v>
-      </c>
-      <c r="S134">
-        <v>1.95</v>
-      </c>
-      <c r="T134">
-        <v>0</v>
-      </c>
-      <c r="U134">
-        <v>0</v>
-      </c>
-      <c r="V134">
-        <v>0</v>
-      </c>
-      <c r="W134">
-        <v>2.33</v>
-      </c>
-      <c r="X134">
-        <v>1.56</v>
-      </c>
-      <c r="Y134">
-        <v>1.86</v>
-      </c>
-      <c r="Z134">
-        <v>1.48</v>
-      </c>
-      <c r="AA134">
-        <v>3.34</v>
-      </c>
-      <c r="AB134">
-        <v>2</v>
-      </c>
-      <c r="AC134">
-        <v>8.5</v>
-      </c>
-      <c r="AD134">
-        <v>2</v>
-      </c>
-      <c r="AE134">
-        <v>0</v>
-      </c>
-      <c r="AF134">
-        <v>0</v>
-      </c>
-      <c r="AG134">
-        <v>0</v>
-      </c>
-      <c r="AH134">
-        <v>0</v>
-      </c>
-      <c r="AI134">
-        <v>0</v>
+        <v>1.88</v>
       </c>
     </row>
   </sheetData>
